--- a/keywords_model2.xlsx
+++ b/keywords_model2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">E-liquid</t>
   </si>
   <si>
-    <t xml:space="preserve">ejuice,e juice,vape liquid, vape juice,e liquid, eliquid</t>
+    <t xml:space="preserve">ejuice,e juice,vape liquid,vape juice,e liquid,eliquid</t>
   </si>
   <si>
     <t xml:space="preserve">liquid, juice, flavor, flavour, mix, pg</t>
@@ -58,19 +58,37 @@
     <t xml:space="preserve">Vape Pen</t>
   </si>
   <si>
+    <t xml:space="preserve">vape pen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pod System</t>
   </si>
   <si>
+    <t xml:space="preserve">vape pod, pod pystem, pod, pod mod </t>
+  </si>
+  <si>
     <t xml:space="preserve">Disposable</t>
   </si>
   <si>
+    <t xml:space="preserve">disposable</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vape Subscription</t>
   </si>
   <si>
+    <t xml:space="preserve">vape subscription, vape box </t>
+  </si>
+  <si>
     <t xml:space="preserve">Other</t>
   </si>
   <si>
+    <t xml:space="preserve">hookah, cannabis, weed, thc, cbd, marijuana</t>
+  </si>
+  <si>
     <t xml:space="preserve">No Specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vape, vaping, smoke, vapor</t>
   </si>
 </sst>
 </file>
@@ -184,13 +202,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,7 +269,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -259,10 +277,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -270,10 +288,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -281,10 +299,10 @@
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -292,10 +310,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -303,10 +321,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>

--- a/keywords_model2.xlsx
+++ b/keywords_model2.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">E-liquid</t>
   </si>
   <si>
-    <t xml:space="preserve">ejuice,e juice,vape liquid,vape juice,e liquid,eliquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liquid, juice, flavor, flavour, mix, pg</t>
+    <t xml:space="preserve">ejuicee juice,vape liquid,vape juice,e liquid,eliquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liquid,juice,flavor,flavour,mix,pg</t>
   </si>
   <si>
     <t xml:space="preserve">Vaping Kit</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Pod System</t>
   </si>
   <si>
-    <t xml:space="preserve">vape pod, pod pystem, pod, pod mod </t>
+    <t xml:space="preserve">vape pod,pod pystem,pod,pod mod </t>
   </si>
   <si>
     <t xml:space="preserve">Disposable</t>
@@ -76,19 +76,19 @@
     <t xml:space="preserve">Vape Subscription</t>
   </si>
   <si>
-    <t xml:space="preserve">vape subscription, vape box </t>
+    <t xml:space="preserve">vape subscription,vape box </t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">hookah, cannabis, weed, thc, cbd, marijuana</t>
+    <t xml:space="preserve">hookah,cannabis,weed,thc,cbd,marijuana</t>
   </si>
   <si>
     <t xml:space="preserve">No Specific</t>
   </si>
   <si>
-    <t xml:space="preserve">vape, vaping, smoke, vapor</t>
+    <t xml:space="preserve">vape,vaping,smoke,vapor</t>
   </si>
 </sst>
 </file>
@@ -202,7 +202,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,7 +231,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>

--- a/keywords_model2.xlsx
+++ b/keywords_model2.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">E-liquid</t>
   </si>
   <si>
-    <t xml:space="preserve">ejuicee juice,vape liquid,vape juice,e liquid,eliquid</t>
+    <t xml:space="preserve">ejuice,e juice,vape liquid,vape juice,e liquid,eliquid</t>
   </si>
   <si>
     <t xml:space="preserve">liquid,juice,flavor,flavour,mix,pg</t>
@@ -202,7 +202,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
